--- a/2025_forecast/data/Example.xlsx
+++ b/2025_forecast/data/Example.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\preseason_SEAK_pink_salmon_forecast\2025_forecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547007A5-4D49-4FC2-BC15-A9E04125B246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91133862-4BD9-48BB-8FD2-4941D791DB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B43CED4A-C141-4E7F-9FD8-D65EF20A43B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B43CED4A-C141-4E7F-9FD8-D65EF20A43B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="m15b" sheetId="6" r:id="rId2"/>
-    <sheet name="m1a" sheetId="2" r:id="rId3"/>
-    <sheet name="m3a" sheetId="4" r:id="rId4"/>
-    <sheet name="m2a" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
+    <sheet name="m11d" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="m15b" sheetId="6" r:id="rId3"/>
+    <sheet name="m1a" sheetId="2" r:id="rId4"/>
+    <sheet name="m3a" sheetId="4" r:id="rId5"/>
+    <sheet name="m2a" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="155">
   <si>
     <t>summary(mod1a)</t>
   </si>
@@ -471,6 +472,42 @@
   <si>
     <t>F-statistic: 26.42 on 3 and 23 DF,  p-value: 1.243e-07</t>
   </si>
+  <si>
+    <t>(Intercept)                                    4.21275    1.04532   4.030 0.000715 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(odd_even_factor)odd                  0.61040    0.20572   2.967 0.007916 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSEAK_SST_May                                 -0.31773    0.13040  -2.437 0.024841 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(vessel)Cobb:adj_raw_pink_log         0.25538    0.10016   2.550 0.019571 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as.factor(vessel)Medeia:adj_raw_pink_log       0.24413    0.13689   1.783 0.090494 .  </t>
+  </si>
+  <si>
+    <t>as.factor(vessel)NW Explorer:adj_raw_pink_log  0.19869    0.08156   2.436 0.024863 *</t>
+  </si>
+  <si>
+    <t>odd even</t>
+  </si>
+  <si>
+    <t>cobb</t>
+  </si>
+  <si>
+    <t>medeia</t>
+  </si>
+  <si>
+    <t>NW explorer</t>
+  </si>
+  <si>
+    <t>Fitted values</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
 </sst>
 </file>
 
@@ -558,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -581,12 +618,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -1058,6 +1094,3007 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF3A915-5BF6-4D0F-BBEE-6CE5317A757B}">
+  <dimension ref="A1:AI59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42.45</v>
+      </c>
+      <c r="B2">
+        <v>0.51</v>
+      </c>
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>0.04</v>
+      </c>
+      <c r="E2">
+        <v>1.35</v>
+      </c>
+      <c r="F2">
+        <v>27.7</v>
+      </c>
+      <c r="G2">
+        <v>1997</v>
+      </c>
+      <c r="H2">
+        <v>1998</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2">
+        <v>5.3327187932653697</v>
+      </c>
+      <c r="K2">
+        <f>$B$53+$B$58*W2+J2*$B$55</f>
+        <v>3.2402049331004399</v>
+      </c>
+      <c r="L2">
+        <f>EXP(K2)*EXP(0.5*$B$59*$B$59)</f>
+        <v>27.699799950534373</v>
+      </c>
+      <c r="M2">
+        <v>9.2752999999999997</v>
+      </c>
+      <c r="N2">
+        <v>10.080979770000001</v>
+      </c>
+      <c r="O2">
+        <v>7.4775079870000001</v>
+      </c>
+      <c r="P2">
+        <v>8.8294728429999996</v>
+      </c>
+      <c r="Q2">
+        <v>7.588146965</v>
+      </c>
+      <c r="R2">
+        <v>10.29519048</v>
+      </c>
+      <c r="S2">
+        <v>7.0071428569999998</v>
+      </c>
+      <c r="T2">
+        <v>8.8284285709999999</v>
+      </c>
+      <c r="U2">
+        <v>7.3024761900000001</v>
+      </c>
+      <c r="V2">
+        <v>10.01928075</v>
+      </c>
+      <c r="W2">
+        <v>7.3471651790000001</v>
+      </c>
+      <c r="X2">
+        <v>8.7070405510000004</v>
+      </c>
+      <c r="Y2">
+        <v>7.404987599</v>
+      </c>
+      <c r="Z2">
+        <v>10.47187257</v>
+      </c>
+      <c r="AA2">
+        <v>7.9995418699999998</v>
+      </c>
+      <c r="AB2">
+        <v>9.1980623359999996</v>
+      </c>
+      <c r="AC2">
+        <v>7.9869633249999996</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2">
+        <v>1E-3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2">
+        <v>3.7482974423584401</v>
+      </c>
+      <c r="AH2">
+        <v>3.7482974423584401</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="B3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.21</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.39</v>
+      </c>
+      <c r="F3">
+        <v>73.45</v>
+      </c>
+      <c r="G3">
+        <v>1998</v>
+      </c>
+      <c r="H3">
+        <v>1999</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3">
+        <v>7.1412451223504902</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K26" si="0">$B$53+$B$54*AI3+$B$58*W3+J3*$B$55</f>
+        <v>4.2154239855050877</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="1">EXP(K3)*EXP(0.5*$B$59*$B$59)</f>
+        <v>73.452889649589011</v>
+      </c>
+      <c r="M3">
+        <v>9.3975000000000009</v>
+      </c>
+      <c r="N3">
+        <v>9.8505005319999999</v>
+      </c>
+      <c r="O3">
+        <v>7.8300958469999999</v>
+      </c>
+      <c r="P3">
+        <v>8.9109744410000005</v>
+      </c>
+      <c r="Q3">
+        <v>7.8816187429999998</v>
+      </c>
+      <c r="R3">
+        <v>9.9670000000000005</v>
+      </c>
+      <c r="S3">
+        <v>7.3432857140000003</v>
+      </c>
+      <c r="T3">
+        <v>8.8470714289999997</v>
+      </c>
+      <c r="U3">
+        <v>7.5599523810000004</v>
+      </c>
+      <c r="V3">
+        <v>9.8928397819999994</v>
+      </c>
+      <c r="W3">
+        <v>7.6525892860000004</v>
+      </c>
+      <c r="X3">
+        <v>8.8466871279999992</v>
+      </c>
+      <c r="Y3">
+        <v>7.7063268850000002</v>
+      </c>
+      <c r="Z3">
+        <v>10.360032540000001</v>
+      </c>
+      <c r="AA3">
+        <v>8.3653098010000004</v>
+      </c>
+      <c r="AB3">
+        <v>9.3788800230000007</v>
+      </c>
+      <c r="AC3">
+        <v>8.3701677310000004</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3">
+        <v>1E-3</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3">
+        <v>4.35437411619335</v>
+      </c>
+      <c r="AH3">
+        <v>4.35437411619335</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20.25</v>
+      </c>
+      <c r="B4">
+        <v>-0.37</v>
+      </c>
+      <c r="C4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.03</v>
+      </c>
+      <c r="E4">
+        <v>-0.98</v>
+      </c>
+      <c r="F4">
+        <v>31.66</v>
+      </c>
+      <c r="G4">
+        <v>1999</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <v>5.0498560072495398</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>3.3737165223682366</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>31.656287322224273</v>
+      </c>
+      <c r="M4">
+        <v>8.5596999999999994</v>
+      </c>
+      <c r="N4">
+        <v>8.8986368480000007</v>
+      </c>
+      <c r="O4">
+        <v>6.8382428119999998</v>
+      </c>
+      <c r="P4">
+        <v>8.0495127800000006</v>
+      </c>
+      <c r="Q4">
+        <v>7.1150585729999998</v>
+      </c>
+      <c r="R4">
+        <v>9.0845714290000004</v>
+      </c>
+      <c r="S4">
+        <v>6.1695714290000003</v>
+      </c>
+      <c r="T4">
+        <v>8.0234642859999994</v>
+      </c>
+      <c r="U4">
+        <v>6.7845714289999997</v>
+      </c>
+      <c r="V4">
+        <v>8.9289012900000007</v>
+      </c>
+      <c r="W4">
+        <v>6.699605655</v>
+      </c>
+      <c r="X4">
+        <v>7.984099702</v>
+      </c>
+      <c r="Y4">
+        <v>6.9482440480000003</v>
+      </c>
+      <c r="Z4">
+        <v>9.2960182749999998</v>
+      </c>
+      <c r="AA4">
+        <v>7.2300450620000003</v>
+      </c>
+      <c r="AB4">
+        <v>8.4038856549999998</v>
+      </c>
+      <c r="AC4">
+        <v>7.4319414190000002</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4">
+        <v>1E-3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4">
+        <v>3.00810427375793</v>
+      </c>
+      <c r="AH4">
+        <v>3.00810427375793</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>67.02</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>0.15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.13</v>
+      </c>
+      <c r="F5">
+        <v>69.16</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>2001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5">
+        <v>6.3851943989977302</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4.1552111566745804</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>69.160605424026542</v>
+      </c>
+      <c r="M5">
+        <v>8.77</v>
+      </c>
+      <c r="N5">
+        <v>9.6976570819999992</v>
+      </c>
+      <c r="O5">
+        <v>7.3407028749999998</v>
+      </c>
+      <c r="P5">
+        <v>8.6230271569999992</v>
+      </c>
+      <c r="Q5">
+        <v>7.5238445150000004</v>
+      </c>
+      <c r="R5">
+        <v>9.9393809520000005</v>
+      </c>
+      <c r="S5">
+        <v>7.0235714290000004</v>
+      </c>
+      <c r="T5">
+        <v>8.6746785709999994</v>
+      </c>
+      <c r="U5">
+        <v>7.35</v>
+      </c>
+      <c r="V5">
+        <v>9.7047048609999997</v>
+      </c>
+      <c r="W5">
+        <v>7.2344122019999997</v>
+      </c>
+      <c r="X5">
+        <v>8.5671502979999996</v>
+      </c>
+      <c r="Y5">
+        <v>7.3898189480000003</v>
+      </c>
+      <c r="Z5">
+        <v>10.02490049</v>
+      </c>
+      <c r="AA5">
+        <v>7.7128351479999999</v>
+      </c>
+      <c r="AB5">
+        <v>8.9468334590000005</v>
+      </c>
+      <c r="AC5">
+        <v>7.8613493549999998</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE5">
+        <v>1E-3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5">
+        <v>4.2050455869413401</v>
+      </c>
+      <c r="AH5">
+        <v>4.2050455869413401</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>45.32</v>
+      </c>
+      <c r="B6">
+        <v>0.31</v>
+      </c>
+      <c r="C6">
+        <v>0.17</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="G6">
+        <v>2001</v>
+      </c>
+      <c r="H6">
+        <v>2002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>5.5012582105447301</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.501763918638523</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>35.980753723430404</v>
+      </c>
+      <c r="M6">
+        <v>9.0254999999999992</v>
+      </c>
+      <c r="N6">
+        <v>9.1542598510000008</v>
+      </c>
+      <c r="O6">
+        <v>6.7412460059999999</v>
+      </c>
+      <c r="P6">
+        <v>8.1831549520000006</v>
+      </c>
+      <c r="Q6">
+        <v>7.1211075609999996</v>
+      </c>
+      <c r="R6">
+        <v>9.566809524</v>
+      </c>
+      <c r="S6">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="T6">
+        <v>8.3993571429999996</v>
+      </c>
+      <c r="U6">
+        <v>7.0817619049999996</v>
+      </c>
+      <c r="V6">
+        <v>9.2218005949999995</v>
+      </c>
+      <c r="W6">
+        <v>6.6594196429999997</v>
+      </c>
+      <c r="X6">
+        <v>8.173500744</v>
+      </c>
+      <c r="Y6">
+        <v>7.0113392860000001</v>
+      </c>
+      <c r="Z6">
+        <v>9.5105219680000008</v>
+      </c>
+      <c r="AA6">
+        <v>7.1014870449999998</v>
+      </c>
+      <c r="AB6">
+        <v>8.5227544119999994</v>
+      </c>
+      <c r="AC6">
+        <v>7.4479847289999999</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE6">
+        <v>1E-3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6">
+        <v>3.8136469526345298</v>
+      </c>
+      <c r="AH6">
+        <v>3.8136469526345298</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>52.47</v>
+      </c>
+      <c r="B7">
+        <v>-0.39</v>
+      </c>
+      <c r="C7">
+        <v>0.23</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>84.21</v>
+      </c>
+      <c r="G7">
+        <v>2002</v>
+      </c>
+      <c r="H7">
+        <v>2003</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <v>6.10924758276437</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4.3520964148889947</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>84.210252117664737</v>
+      </c>
+      <c r="M7">
+        <v>8.1995000000000005</v>
+      </c>
+      <c r="N7">
+        <v>8.9707667729999994</v>
+      </c>
+      <c r="O7">
+        <v>6.3864856229999996</v>
+      </c>
+      <c r="P7">
+        <v>7.8458146959999997</v>
+      </c>
+      <c r="Q7">
+        <v>6.6410649629999998</v>
+      </c>
+      <c r="R7">
+        <v>9.3363333330000007</v>
+      </c>
+      <c r="S7">
+        <v>6.2635714289999997</v>
+      </c>
+      <c r="T7">
+        <v>8.0199285709999995</v>
+      </c>
+      <c r="U7">
+        <v>6.5982380950000001</v>
+      </c>
+      <c r="V7">
+        <v>9.0545337299999993</v>
+      </c>
+      <c r="W7">
+        <v>6.3929538690000003</v>
+      </c>
+      <c r="X7">
+        <v>7.8834858629999998</v>
+      </c>
+      <c r="Y7">
+        <v>6.6144667659999996</v>
+      </c>
+      <c r="Z7">
+        <v>9.4415095759999996</v>
+      </c>
+      <c r="AA7">
+        <v>6.9205595190000002</v>
+      </c>
+      <c r="AB7">
+        <v>8.3329046190000007</v>
+      </c>
+      <c r="AC7">
+        <v>7.1394279630000002</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE7">
+        <v>1E-3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7">
+        <v>3.96017934972858</v>
+      </c>
+      <c r="AH7">
+        <v>3.96017934972858</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45.31</v>
+      </c>
+      <c r="B8">
+        <v>0.65</v>
+      </c>
+      <c r="C8">
+        <v>0.13</v>
+      </c>
+      <c r="D8">
+        <v>0.08</v>
+      </c>
+      <c r="E8">
+        <v>1.73</v>
+      </c>
+      <c r="F8">
+        <v>25.7</v>
+      </c>
+      <c r="G8">
+        <v>2003</v>
+      </c>
+      <c r="H8">
+        <v>2004</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8">
+        <v>5.3181199938442196</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3.1651860229542663</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>25.697823022527821</v>
+      </c>
+      <c r="M8">
+        <v>9.3077000000000005</v>
+      </c>
+      <c r="N8">
+        <v>9.9188924390000004</v>
+      </c>
+      <c r="O8">
+        <v>7.7127156550000002</v>
+      </c>
+      <c r="P8">
+        <v>8.9037220450000003</v>
+      </c>
+      <c r="Q8">
+        <v>7.8454419599999996</v>
+      </c>
+      <c r="R8">
+        <v>10.08133333</v>
+      </c>
+      <c r="S8">
+        <v>7.2862857139999999</v>
+      </c>
+      <c r="T8">
+        <v>8.8821785710000007</v>
+      </c>
+      <c r="U8">
+        <v>7.5317142859999997</v>
+      </c>
+      <c r="V8">
+        <v>9.8581101189999991</v>
+      </c>
+      <c r="W8">
+        <v>7.5715401790000003</v>
+      </c>
+      <c r="X8">
+        <v>8.7582626490000006</v>
+      </c>
+      <c r="Y8">
+        <v>7.6040997020000001</v>
+      </c>
+      <c r="Z8">
+        <v>10.318872199999999</v>
+      </c>
+      <c r="AA8">
+        <v>8.1685467519999992</v>
+      </c>
+      <c r="AB8">
+        <v>9.2495465639999992</v>
+      </c>
+      <c r="AC8">
+        <v>8.1636212290000003</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8">
+        <v>1E-3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8">
+        <v>3.8135221086961901</v>
+      </c>
+      <c r="AH8">
+        <v>3.8135221086961901</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59.12</v>
+      </c>
+      <c r="B9">
+        <v>0.03</v>
+      </c>
+      <c r="C9">
+        <v>0.21</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>62.45</v>
+      </c>
+      <c r="G9">
+        <v>2004</v>
+      </c>
+      <c r="H9">
+        <v>2005</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9">
+        <v>6.8046145200626196</v>
+      </c>
+      <c r="K9">
+        <f>$B$53+$B$54*AI9+$B$58*W9+J9*$B$55</f>
+        <v>4.0531409607000519</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>62.449686638730938</v>
+      </c>
+      <c r="M9">
+        <v>9.3331</v>
+      </c>
+      <c r="N9">
+        <v>10.43404686</v>
+      </c>
+      <c r="O9">
+        <v>7.9432907349999997</v>
+      </c>
+      <c r="P9">
+        <v>9.2192811500000005</v>
+      </c>
+      <c r="Q9">
+        <v>7.9640468579999997</v>
+      </c>
+      <c r="R9">
+        <v>10.67757143</v>
+      </c>
+      <c r="S9">
+        <v>7.5287142859999996</v>
+      </c>
+      <c r="T9">
+        <v>9.2509285709999993</v>
+      </c>
+      <c r="U9">
+        <v>7.6878095240000004</v>
+      </c>
+      <c r="V9">
+        <v>10.38101438</v>
+      </c>
+      <c r="W9">
+        <v>7.8927752980000001</v>
+      </c>
+      <c r="X9">
+        <v>9.0901748510000004</v>
+      </c>
+      <c r="Y9">
+        <v>7.7863864090000003</v>
+      </c>
+      <c r="Z9">
+        <v>10.97719614</v>
+      </c>
+      <c r="AA9">
+        <v>8.5784265869999992</v>
+      </c>
+      <c r="AB9">
+        <v>9.7426886970000002</v>
+      </c>
+      <c r="AC9">
+        <v>8.5124596320000006</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9">
+        <v>1E-3</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG9">
+        <v>4.0795944285563799</v>
+      </c>
+      <c r="AH9">
+        <v>4.0795944285563799</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11.61</v>
+      </c>
+      <c r="B10">
+        <v>-0.38</v>
+      </c>
+      <c r="C10">
+        <v>0.26</v>
+      </c>
+      <c r="D10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="F10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G10">
+        <v>2005</v>
+      </c>
+      <c r="H10">
+        <v>2006</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>5.0625950330269696</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.8310415899982275</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>18.398365848008492</v>
+      </c>
+      <c r="M10">
+        <v>10.2064</v>
+      </c>
+      <c r="N10">
+        <v>10.667763580000001</v>
+      </c>
+      <c r="O10">
+        <v>8.5138658150000008</v>
+      </c>
+      <c r="P10">
+        <v>9.4794568689999998</v>
+      </c>
+      <c r="Q10">
+        <v>8.4435250269999997</v>
+      </c>
+      <c r="R10">
+        <v>11.15685714</v>
+      </c>
+      <c r="S10">
+        <v>8.4048571429999992</v>
+      </c>
+      <c r="T10">
+        <v>9.6408571429999999</v>
+      </c>
+      <c r="U10">
+        <v>8.2555714289999997</v>
+      </c>
+      <c r="V10">
+        <v>10.63086062</v>
+      </c>
+      <c r="W10">
+        <v>8.4178199399999993</v>
+      </c>
+      <c r="X10">
+        <v>9.3518470980000004</v>
+      </c>
+      <c r="Y10">
+        <v>8.2556820440000003</v>
+      </c>
+      <c r="Z10">
+        <v>11.06199524</v>
+      </c>
+      <c r="AA10">
+        <v>8.9235486290000008</v>
+      </c>
+      <c r="AB10">
+        <v>9.8301182879999995</v>
+      </c>
+      <c r="AC10">
+        <v>8.8230704719999995</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10">
+        <v>2.4515652860053598</v>
+      </c>
+      <c r="AH10">
+        <v>2.4515652860053598</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44.8</v>
+      </c>
+      <c r="B11">
+        <v>-0.37</v>
+      </c>
+      <c r="C11">
+        <v>0.16</v>
+      </c>
+      <c r="D11">
+        <v>0.03</v>
+      </c>
+      <c r="E11">
+        <v>-1.01</v>
+      </c>
+      <c r="F11">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="G11">
+        <v>2006</v>
+      </c>
+      <c r="H11">
+        <v>2007</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11">
+        <v>6.14418563412565</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>4.1745700132561581</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>70.512519197345824</v>
+      </c>
+      <c r="M11">
+        <v>8.7507999999999999</v>
+      </c>
+      <c r="N11">
+        <v>9.7760489879999994</v>
+      </c>
+      <c r="O11">
+        <v>7.159872204</v>
+      </c>
+      <c r="P11">
+        <v>8.6756150160000001</v>
+      </c>
+      <c r="Q11">
+        <v>7.5834185300000003</v>
+      </c>
+      <c r="R11">
+        <v>10.19233333</v>
+      </c>
+      <c r="S11">
+        <v>6.8385714289999999</v>
+      </c>
+      <c r="T11">
+        <v>8.8607142860000003</v>
+      </c>
+      <c r="U11">
+        <v>7.4878095240000002</v>
+      </c>
+      <c r="V11">
+        <v>9.7206746030000009</v>
+      </c>
+      <c r="W11">
+        <v>6.9797693450000002</v>
+      </c>
+      <c r="X11">
+        <v>8.5501153270000003</v>
+      </c>
+      <c r="Y11">
+        <v>7.3633283729999999</v>
+      </c>
+      <c r="Z11">
+        <v>10.185965700000001</v>
+      </c>
+      <c r="AA11">
+        <v>7.6320277880000003</v>
+      </c>
+      <c r="AB11">
+        <v>9.0690508820000009</v>
+      </c>
+      <c r="AC11">
+        <v>7.9605545119999999</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE11">
+        <v>1E-3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG11">
+        <v>3.8021277120796002</v>
+      </c>
+      <c r="AH11">
+        <v>3.8021277120796002</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15.91</v>
+      </c>
+      <c r="B12">
+        <v>-0.24</v>
+      </c>
+      <c r="C12">
+        <v>0.19</v>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>-0.66</v>
+      </c>
+      <c r="F12">
+        <v>21.87</v>
+      </c>
+      <c r="G12">
+        <v>2007</v>
+      </c>
+      <c r="H12">
+        <v>2008</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12">
+        <v>3.8501476017100602</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>3.0040514007444545</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>21.873408139036641</v>
+      </c>
+      <c r="M12">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="N12">
+        <v>9.5219808310000005</v>
+      </c>
+      <c r="O12">
+        <v>7.042204473</v>
+      </c>
+      <c r="P12">
+        <v>8.4075718849999994</v>
+      </c>
+      <c r="Q12">
+        <v>7.2669222580000001</v>
+      </c>
+      <c r="R12">
+        <v>9.4948571430000008</v>
+      </c>
+      <c r="S12">
+        <v>6.548</v>
+      </c>
+      <c r="T12">
+        <v>8.1613214289999991</v>
+      </c>
+      <c r="U12">
+        <v>6.8666666669999996</v>
+      </c>
+      <c r="V12">
+        <v>9.4352554560000002</v>
+      </c>
+      <c r="W12">
+        <v>6.8987797620000002</v>
+      </c>
+      <c r="X12">
+        <v>8.2372414430000003</v>
+      </c>
+      <c r="Y12">
+        <v>7.0310069439999996</v>
+      </c>
+      <c r="Z12">
+        <v>9.9920766049999994</v>
+      </c>
+      <c r="AA12">
+        <v>7.5117348850000001</v>
+      </c>
+      <c r="AB12">
+        <v>8.8221460759999992</v>
+      </c>
+      <c r="AC12">
+        <v>7.6373463509999997</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE12">
+        <v>1E-3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12">
+        <v>2.7668802096415401</v>
+      </c>
+      <c r="AH12">
+        <v>2.7668802096415401</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>58.88</v>
+      </c>
+      <c r="B13">
+        <v>-0.16</v>
+      </c>
+      <c r="C13">
+        <v>0.31</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>-0.47</v>
+      </c>
+      <c r="F13">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="G13">
+        <v>2010</v>
+      </c>
+      <c r="H13">
+        <v>2011</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13">
+        <v>9.4319627669184491</v>
+      </c>
+      <c r="K13">
+        <f>$B$53+$B$54*AI13+$B$58*W13+J13*$B$57</f>
+        <v>4.2330108634695467</v>
+      </c>
+      <c r="L13">
+        <f>EXP(K13)*EXP(0.5*$B$59*$B$59)</f>
+        <v>74.756122968181387</v>
+      </c>
+      <c r="M13">
+        <v>9.3533000000000008</v>
+      </c>
+      <c r="N13">
+        <v>9.6454100109999992</v>
+      </c>
+      <c r="O13">
+        <v>7.969105431</v>
+      </c>
+      <c r="P13">
+        <v>8.6617012780000007</v>
+      </c>
+      <c r="Q13">
+        <v>7.925846645</v>
+      </c>
+      <c r="R13">
+        <v>9.8727619050000008</v>
+      </c>
+      <c r="S13">
+        <v>7.7087142860000002</v>
+      </c>
+      <c r="T13">
+        <v>8.6808928569999999</v>
+      </c>
+      <c r="U13">
+        <v>7.8079047619999997</v>
+      </c>
+      <c r="V13">
+        <v>9.6237227179999998</v>
+      </c>
+      <c r="W13">
+        <v>7.7555654760000001</v>
+      </c>
+      <c r="X13">
+        <v>8.5403999259999992</v>
+      </c>
+      <c r="Y13">
+        <v>7.7192187499999996</v>
+      </c>
+      <c r="Z13">
+        <v>10.0920691</v>
+      </c>
+      <c r="AA13">
+        <v>8.2834059329999992</v>
+      </c>
+      <c r="AB13">
+        <v>9.0522324449999996</v>
+      </c>
+      <c r="AC13">
+        <v>8.2268068589999999</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE13">
+        <v>1E-3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG13">
+        <v>4.0755363583230402</v>
+      </c>
+      <c r="AH13">
+        <v>4.0755363583230402</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21.28</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>0.17</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+      <c r="F14">
+        <v>22.73</v>
+      </c>
+      <c r="G14">
+        <v>2011</v>
+      </c>
+      <c r="H14">
+        <v>2012</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>5.7071102647488798</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K26" si="2">$B$53+$B$54*AI14+$B$58*W14+J14*$B$57</f>
+        <v>3.0425787712246746</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L26" si="3">EXP(K14)*EXP(0.5*$B$59*$B$59)</f>
+        <v>22.732577533214108</v>
+      </c>
+      <c r="M14">
+        <v>8.6532999999999998</v>
+      </c>
+      <c r="N14">
+        <v>9.5912886050000008</v>
+      </c>
+      <c r="O14">
+        <v>7.3124281150000003</v>
+      </c>
+      <c r="P14">
+        <v>8.492771565</v>
+      </c>
+      <c r="Q14">
+        <v>7.5477635779999996</v>
+      </c>
+      <c r="R14">
+        <v>9.8437142860000009</v>
+      </c>
+      <c r="S14">
+        <v>6.8098571430000003</v>
+      </c>
+      <c r="T14">
+        <v>8.4745357139999999</v>
+      </c>
+      <c r="U14">
+        <v>7.1788095240000001</v>
+      </c>
+      <c r="V14">
+        <v>9.6650322420000006</v>
+      </c>
+      <c r="W14">
+        <v>7.2518080359999999</v>
+      </c>
+      <c r="X14">
+        <v>8.4370368300000003</v>
+      </c>
+      <c r="Y14">
+        <v>7.4364484129999999</v>
+      </c>
+      <c r="Z14">
+        <v>10.051732380000001</v>
+      </c>
+      <c r="AA14">
+        <v>7.7402966580000001</v>
+      </c>
+      <c r="AB14">
+        <v>8.8831627859999998</v>
+      </c>
+      <c r="AC14">
+        <v>7.9183940420000001</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14">
+        <v>1E-3</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14">
+        <v>3.05762752307515</v>
+      </c>
+      <c r="AH14">
+        <v>3.05762752307515</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>94.72</v>
+      </c>
+      <c r="B15">
+        <v>0.24</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.04</v>
+      </c>
+      <c r="E15">
+        <v>0.72</v>
+      </c>
+      <c r="F15">
+        <v>80.44</v>
+      </c>
+      <c r="G15">
+        <v>2012</v>
+      </c>
+      <c r="H15">
+        <v>2013</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15">
+        <v>8.5157922105006101</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>4.3062980496622565</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>80.44054239444722</v>
+      </c>
+      <c r="M15">
+        <v>8.4766999999999992</v>
+      </c>
+      <c r="N15">
+        <v>9.1682428120000008</v>
+      </c>
+      <c r="O15">
+        <v>7.0715654949999998</v>
+      </c>
+      <c r="P15">
+        <v>8.1818610219999997</v>
+      </c>
+      <c r="Q15">
+        <v>7.2241427050000002</v>
+      </c>
+      <c r="R15">
+        <v>9.2320476189999994</v>
+      </c>
+      <c r="S15">
+        <v>6.9248571429999997</v>
+      </c>
+      <c r="T15">
+        <v>8.1041785710000003</v>
+      </c>
+      <c r="U15">
+        <v>7.0669523810000001</v>
+      </c>
+      <c r="V15">
+        <v>9.1412822420000008</v>
+      </c>
+      <c r="W15">
+        <v>6.9519866070000003</v>
+      </c>
+      <c r="X15">
+        <v>8.0884858630000007</v>
+      </c>
+      <c r="Y15">
+        <v>7.1025570440000001</v>
+      </c>
+      <c r="Z15">
+        <v>9.6794817870000003</v>
+      </c>
+      <c r="AA15">
+        <v>7.4688509200000004</v>
+      </c>
+      <c r="AB15">
+        <v>8.6274708970000002</v>
+      </c>
+      <c r="AC15">
+        <v>7.606586557</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15">
+        <v>1E-3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG15">
+        <v>4.5509190689211296</v>
+      </c>
+      <c r="AH15">
+        <v>4.5509190689211296</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37.17</v>
+      </c>
+      <c r="B16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>0.31</v>
+      </c>
+      <c r="D16">
+        <v>0.01</v>
+      </c>
+      <c r="E16">
+        <v>0.43</v>
+      </c>
+      <c r="F16">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="G16">
+        <v>2013</v>
+      </c>
+      <c r="H16">
+        <v>2014</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16">
+        <v>6.8001700683021999</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>3.470436981511094</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>34.871059327912967</v>
+      </c>
+      <c r="M16">
+        <v>8.8346999999999998</v>
+      </c>
+      <c r="N16">
+        <v>9.6562300319999999</v>
+      </c>
+      <c r="O16">
+        <v>6.7413099040000004</v>
+      </c>
+      <c r="P16">
+        <v>8.4417971250000008</v>
+      </c>
+      <c r="Q16">
+        <v>7.2136315230000001</v>
+      </c>
+      <c r="R16">
+        <v>9.8807142859999999</v>
+      </c>
+      <c r="S16">
+        <v>6.3698571429999999</v>
+      </c>
+      <c r="T16">
+        <v>8.4521428570000001</v>
+      </c>
+      <c r="U16">
+        <v>6.9739523810000001</v>
+      </c>
+      <c r="V16">
+        <v>9.6731175599999997</v>
+      </c>
+      <c r="W16">
+        <v>6.5887351189999999</v>
+      </c>
+      <c r="X16">
+        <v>8.3551581099999996</v>
+      </c>
+      <c r="Y16">
+        <v>7.041044147</v>
+      </c>
+      <c r="Z16">
+        <v>10.39433346</v>
+      </c>
+      <c r="AA16">
+        <v>7.5108599319999998</v>
+      </c>
+      <c r="AB16">
+        <v>9.1048028540000008</v>
+      </c>
+      <c r="AC16">
+        <v>7.8505382399999997</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16">
+        <v>1E-3</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16">
+        <v>3.6156059525389299</v>
+      </c>
+      <c r="AH16">
+        <v>3.6156059525389299</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="B17">
+        <v>-0.2</v>
+      </c>
+      <c r="C17">
+        <v>0.19</v>
+      </c>
+      <c r="D17">
+        <v>0.01</v>
+      </c>
+      <c r="E17">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="F17">
+        <v>46.44</v>
+      </c>
+      <c r="G17">
+        <v>2014</v>
+      </c>
+      <c r="H17">
+        <v>2015</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17">
+        <v>7.6732231211217101</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>3.7570138893146323</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>46.443389804822004</v>
+      </c>
+      <c r="M17">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="N17">
+        <v>9.9751757189999992</v>
+      </c>
+      <c r="O17">
+        <v>8.1652396169999992</v>
+      </c>
+      <c r="P17">
+        <v>8.7557987219999998</v>
+      </c>
+      <c r="Q17">
+        <v>7.7676890309999997</v>
+      </c>
+      <c r="R17">
+        <v>10.23414286</v>
+      </c>
+      <c r="S17">
+        <v>7.8972857139999997</v>
+      </c>
+      <c r="T17">
+        <v>8.8102499999999999</v>
+      </c>
+      <c r="U17">
+        <v>7.6229523810000002</v>
+      </c>
+      <c r="V17">
+        <v>10.028618549999999</v>
+      </c>
+      <c r="W17">
+        <v>8.1538690480000007</v>
+      </c>
+      <c r="X17">
+        <v>8.7010342260000009</v>
+      </c>
+      <c r="Y17">
+        <v>7.637539683</v>
+      </c>
+      <c r="Z17">
+        <v>10.569357869999999</v>
+      </c>
+      <c r="AA17">
+        <v>8.615362373</v>
+      </c>
+      <c r="AB17">
+        <v>9.2643174990000006</v>
+      </c>
+      <c r="AC17">
+        <v>8.1730091379999994</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17">
+        <v>1E-3</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG17">
+        <v>3.5579893701604499</v>
+      </c>
+      <c r="AH17">
+        <v>3.5579893701604499</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18.37</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>0.31</v>
+      </c>
+      <c r="D18">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>0.59</v>
+      </c>
+      <c r="F18">
+        <v>16.37</v>
+      </c>
+      <c r="G18">
+        <v>2015</v>
+      </c>
+      <c r="H18">
+        <v>2016</v>
+      </c>
+      <c r="I18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18">
+        <v>6.7202201551352996</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>2.7141770035310726</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>16.369130288481546</v>
+      </c>
+      <c r="M18">
+        <v>9.6067</v>
+      </c>
+      <c r="N18">
+        <v>10.6215229</v>
+      </c>
+      <c r="O18">
+        <v>8.8737699679999995</v>
+      </c>
+      <c r="P18">
+        <v>9.5544888179999994</v>
+      </c>
+      <c r="Q18">
+        <v>8.73</v>
+      </c>
+      <c r="R18">
+        <v>10.72547619</v>
+      </c>
+      <c r="S18">
+        <v>8.3411428569999995</v>
+      </c>
+      <c r="T18">
+        <v>9.4307142860000006</v>
+      </c>
+      <c r="U18">
+        <v>8.2924761900000004</v>
+      </c>
+      <c r="V18">
+        <v>10.80536706</v>
+      </c>
+      <c r="W18">
+        <v>8.9189360119999996</v>
+      </c>
+      <c r="X18">
+        <v>9.5593154760000001</v>
+      </c>
+      <c r="Y18">
+        <v>8.6534176590000005</v>
+      </c>
+      <c r="Z18">
+        <v>11.42881086</v>
+      </c>
+      <c r="AA18">
+        <v>9.6438941039999992</v>
+      </c>
+      <c r="AB18">
+        <v>10.213680999999999</v>
+      </c>
+      <c r="AC18">
+        <v>9.3159969960000009</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE18">
+        <v>1E-3</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG18">
+        <v>2.9109475067361501</v>
+      </c>
+      <c r="AH18">
+        <v>2.9109475067361501</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="B19">
+        <v>-0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>-0.06</v>
+      </c>
+      <c r="F19">
+        <v>38.409999999999997</v>
+      </c>
+      <c r="G19">
+        <v>2016</v>
+      </c>
+      <c r="H19">
+        <v>2017</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19">
+        <v>7.9377317752601098</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>3.5670777671724712</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>38.409238831926906</v>
+      </c>
+      <c r="M19">
+        <v>10.198499999999999</v>
+      </c>
+      <c r="N19">
+        <v>11.037145900000001</v>
+      </c>
+      <c r="O19">
+        <v>8.9155271569999996</v>
+      </c>
+      <c r="P19">
+        <v>10.033690099999999</v>
+      </c>
+      <c r="Q19">
+        <v>9.0681469650000004</v>
+      </c>
+      <c r="R19">
+        <v>11.64580952</v>
+      </c>
+      <c r="S19">
+        <v>8.8067142860000001</v>
+      </c>
+      <c r="T19">
+        <v>10.37092857</v>
+      </c>
+      <c r="U19">
+        <v>9.1376666669999995</v>
+      </c>
+      <c r="V19">
+        <v>11.180634919999999</v>
+      </c>
+      <c r="W19">
+        <v>8.9170684520000005</v>
+      </c>
+      <c r="X19">
+        <v>10.053041289999999</v>
+      </c>
+      <c r="Y19">
+        <v>9.0013814480000001</v>
+      </c>
+      <c r="Z19">
+        <v>11.670022530000001</v>
+      </c>
+      <c r="AA19">
+        <v>9.6072174239999999</v>
+      </c>
+      <c r="AB19">
+        <v>10.59035205</v>
+      </c>
+      <c r="AC19">
+        <v>9.5929102519999994</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19">
+        <v>1E-3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG19">
+        <v>3.5477413177180299</v>
+      </c>
+      <c r="AH19">
+        <v>3.5477413177180299</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8.07</v>
+      </c>
+      <c r="B20">
+        <v>-0.37</v>
+      </c>
+      <c r="C20">
+        <v>0.41</v>
+      </c>
+      <c r="D20">
+        <v>0.17</v>
+      </c>
+      <c r="E20">
+        <v>-1.19</v>
+      </c>
+      <c r="F20">
+        <v>12.65</v>
+      </c>
+      <c r="G20">
+        <v>2017</v>
+      </c>
+      <c r="H20">
+        <v>2018</v>
+      </c>
+      <c r="I20" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20">
+        <v>3.55534806148941</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>2.4567546063373302</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>12.654018901003415</v>
+      </c>
+      <c r="M20">
+        <v>8.5604999999999993</v>
+      </c>
+      <c r="N20">
+        <v>9.6549094780000004</v>
+      </c>
+      <c r="O20">
+        <v>7.6529392969999996</v>
+      </c>
+      <c r="P20">
+        <v>8.6958226839999995</v>
+      </c>
+      <c r="Q20">
+        <v>7.759669862</v>
+      </c>
+      <c r="R20">
+        <v>9.8199523810000002</v>
+      </c>
+      <c r="S20">
+        <v>7.2157142859999999</v>
+      </c>
+      <c r="T20">
+        <v>8.6625714289999998</v>
+      </c>
+      <c r="U20">
+        <v>7.5067142860000002</v>
+      </c>
+      <c r="V20">
+        <v>9.8214360119999995</v>
+      </c>
+      <c r="W20">
+        <v>7.75</v>
+      </c>
+      <c r="X20">
+        <v>8.7661365329999992</v>
+      </c>
+      <c r="Y20">
+        <v>7.7769122020000001</v>
+      </c>
+      <c r="Z20">
+        <v>10.308907250000001</v>
+      </c>
+      <c r="AA20">
+        <v>8.2547765680000005</v>
+      </c>
+      <c r="AB20">
+        <v>9.282535674</v>
+      </c>
+      <c r="AC20">
+        <v>8.2878295160000004</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20">
+        <v>1E-3</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG20">
+        <v>2.08786843546409</v>
+      </c>
+      <c r="AH20">
+        <v>2.08786843546409</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21.14</v>
+      </c>
+      <c r="B21">
+        <v>-0.34</v>
+      </c>
+      <c r="C21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>-0.99</v>
+      </c>
+      <c r="F21">
+        <v>32.15</v>
+      </c>
+      <c r="G21">
+        <v>2018</v>
+      </c>
+      <c r="H21">
+        <v>2019</v>
+      </c>
+      <c r="I21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21">
+        <v>3.9318256327243302</v>
+      </c>
+      <c r="K21">
+        <f>$B$53+$B$54*AI21+$B$58*W21+J21*$B$56</f>
+        <v>3.3892832870446208</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>32.152928819174051</v>
+      </c>
+      <c r="M21">
+        <v>8.9250000000000007</v>
+      </c>
+      <c r="N21">
+        <v>9.8706709270000008</v>
+      </c>
+      <c r="O21">
+        <v>7.4035463259999998</v>
+      </c>
+      <c r="P21">
+        <v>8.7536821089999997</v>
+      </c>
+      <c r="Q21">
+        <v>7.6142918000000002</v>
+      </c>
+      <c r="R21">
+        <v>9.9863809519999993</v>
+      </c>
+      <c r="S21">
+        <v>6.9205714289999998</v>
+      </c>
+      <c r="T21">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="U21">
+        <v>7.4327142860000004</v>
+      </c>
+      <c r="V21">
+        <v>10.10597718</v>
+      </c>
+      <c r="W21">
+        <v>7.533891369</v>
+      </c>
+      <c r="X21">
+        <v>8.8577901790000002</v>
+      </c>
+      <c r="Y21">
+        <v>7.6262425599999997</v>
+      </c>
+      <c r="Z21">
+        <v>10.786515209999999</v>
+      </c>
+      <c r="AA21">
+        <v>8.2795456250000008</v>
+      </c>
+      <c r="AB21">
+        <v>9.5379797219999993</v>
+      </c>
+      <c r="AC21">
+        <v>8.2952935290000003</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE21">
+        <v>1E-3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG21">
+        <v>3.0512573264080798</v>
+      </c>
+      <c r="AH21">
+        <v>3.0512573264080798</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8.06</v>
+      </c>
+      <c r="B22">
+        <v>-0.75</v>
+      </c>
+      <c r="C22">
+        <v>0.51</v>
+      </c>
+      <c r="D22">
+        <v>1.23</v>
+      </c>
+      <c r="E22">
+        <v>-2.65</v>
+      </c>
+      <c r="F22">
+        <v>18.47</v>
+      </c>
+      <c r="G22">
+        <v>2019</v>
+      </c>
+      <c r="H22">
+        <v>2020</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22">
+        <v>5.3181199938442196</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K26" si="4">$B$53+$B$54*AI22+$B$58*W22+J22*$B$56</f>
+        <v>2.8348185887392994</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>18.467987850995705</v>
+      </c>
+      <c r="M22">
+        <v>9.9111999999999991</v>
+      </c>
+      <c r="N22">
+        <v>10.470244940000001</v>
+      </c>
+      <c r="O22">
+        <v>8.2439936100000004</v>
+      </c>
+      <c r="P22">
+        <v>9.4555431310000007</v>
+      </c>
+      <c r="Q22">
+        <v>8.3549307769999999</v>
+      </c>
+      <c r="R22">
+        <v>10.738714290000001</v>
+      </c>
+      <c r="S22">
+        <v>7.7865714290000003</v>
+      </c>
+      <c r="T22">
+        <v>9.5140357140000003</v>
+      </c>
+      <c r="U22">
+        <v>8.0991428570000004</v>
+      </c>
+      <c r="V22">
+        <v>10.871257440000001</v>
+      </c>
+      <c r="W22">
+        <v>8.4230133929999997</v>
+      </c>
+      <c r="X22">
+        <v>9.6499702379999999</v>
+      </c>
+      <c r="Y22">
+        <v>8.4364087300000001</v>
+      </c>
+      <c r="Z22">
+        <v>11.463307049999999</v>
+      </c>
+      <c r="AA22">
+        <v>9.0132031539999993</v>
+      </c>
+      <c r="AB22">
+        <v>10.24567124</v>
+      </c>
+      <c r="AC22">
+        <v>9.0470484419999995</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22">
+        <v>2.0872843314454701</v>
+      </c>
+      <c r="AH22">
+        <v>2.0872843314454701</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>48.53</v>
+      </c>
+      <c r="B23">
+        <v>0.61</v>
+      </c>
+      <c r="C23">
+        <v>0.26</v>
+      </c>
+      <c r="D23">
+        <v>0.18</v>
+      </c>
+      <c r="E23">
+        <v>1.76</v>
+      </c>
+      <c r="F23">
+        <v>28.63</v>
+      </c>
+      <c r="G23">
+        <v>2020</v>
+      </c>
+      <c r="H23">
+        <v>2021</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23">
+        <v>4.4067192472642498</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>3.273091768332641</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>28.625903548720604</v>
+      </c>
+      <c r="M23">
+        <v>8.8882999999999992</v>
+      </c>
+      <c r="N23">
+        <v>9.9938764639999995</v>
+      </c>
+      <c r="O23">
+        <v>8.0894249200000008</v>
+      </c>
+      <c r="P23">
+        <v>8.8353753990000001</v>
+      </c>
+      <c r="Q23">
+        <v>7.860308839</v>
+      </c>
+      <c r="R23">
+        <v>10.397142860000001</v>
+      </c>
+      <c r="S23">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="T23">
+        <v>9.0485714290000008</v>
+      </c>
+      <c r="U23">
+        <v>7.8556190480000003</v>
+      </c>
+      <c r="V23">
+        <v>10.22914435</v>
+      </c>
+      <c r="W23">
+        <v>8.264471726</v>
+      </c>
+      <c r="X23">
+        <v>8.9823586310000003</v>
+      </c>
+      <c r="Y23">
+        <v>7.9448065479999999</v>
+      </c>
+      <c r="Z23">
+        <v>10.702761300000001</v>
+      </c>
+      <c r="AA23">
+        <v>8.8981975220000002</v>
+      </c>
+      <c r="AB23">
+        <v>9.5223939170000005</v>
+      </c>
+      <c r="AC23">
+        <v>8.5283364630000005</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG23">
+        <v>3.8821449074171301</v>
+      </c>
+      <c r="AH23">
+        <v>3.8821449074171301</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18.3</v>
+      </c>
+      <c r="B24">
+        <v>-0.08</v>
+      </c>
+      <c r="C24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>-0.23</v>
+      </c>
+      <c r="F24">
+        <v>21.46</v>
+      </c>
+      <c r="G24">
+        <v>2021</v>
+      </c>
+      <c r="H24">
+        <v>2022</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24">
+        <v>4.4626186419547604</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>2.9847540813689553</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>21.455356606301276</v>
+      </c>
+      <c r="M24">
+        <v>8.8855000000000004</v>
+      </c>
+      <c r="N24">
+        <v>10.06083067</v>
+      </c>
+      <c r="O24">
+        <v>7.2485622999999997</v>
+      </c>
+      <c r="P24">
+        <v>8.8951597440000008</v>
+      </c>
+      <c r="Q24">
+        <v>7.6291906279999999</v>
+      </c>
+      <c r="R24">
+        <v>10.25933333</v>
+      </c>
+      <c r="S24">
+        <v>6.9135714290000001</v>
+      </c>
+      <c r="T24">
+        <v>8.9066428569999996</v>
+      </c>
+      <c r="U24">
+        <v>7.468</v>
+      </c>
+      <c r="V24">
+        <v>10.22695437</v>
+      </c>
+      <c r="W24">
+        <v>7.2937872019999999</v>
+      </c>
+      <c r="X24">
+        <v>8.9576636900000004</v>
+      </c>
+      <c r="Y24">
+        <v>7.6468948409999999</v>
+      </c>
+      <c r="Z24">
+        <v>10.81557892</v>
+      </c>
+      <c r="AA24">
+        <v>7.9704431089999996</v>
+      </c>
+      <c r="AB24">
+        <v>9.5849136309999992</v>
+      </c>
+      <c r="AC24">
+        <v>8.3054512450000004</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG24">
+        <v>2.9068550478598798</v>
+      </c>
+      <c r="AH24">
+        <v>2.9068550478598798</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>47.84</v>
+      </c>
+      <c r="B25">
+        <v>0.41</v>
+      </c>
+      <c r="C25">
+        <v>0.24</v>
+      </c>
+      <c r="D25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.17</v>
+      </c>
+      <c r="F25">
+        <v>34.46</v>
+      </c>
+      <c r="G25">
+        <v>2022</v>
+      </c>
+      <c r="H25">
+        <v>2023</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25">
+        <v>4.3307333402863302</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>3.4584535398601419</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>34.455677843857899</v>
+      </c>
+      <c r="M25">
+        <v>8.9844000000000008</v>
+      </c>
+      <c r="N25">
+        <v>10.174377</v>
+      </c>
+      <c r="O25">
+        <v>7.5150798720000003</v>
+      </c>
+      <c r="P25">
+        <v>8.9180031950000007</v>
+      </c>
+      <c r="Q25">
+        <v>7.6417145900000003</v>
+      </c>
+      <c r="R25">
+        <v>10.342380950000001</v>
+      </c>
+      <c r="S25">
+        <v>7.1344285709999999</v>
+      </c>
+      <c r="T25">
+        <v>8.8847857139999995</v>
+      </c>
+      <c r="U25">
+        <v>7.4028571430000003</v>
+      </c>
+      <c r="V25">
+        <v>10.52362847</v>
+      </c>
+      <c r="W25">
+        <v>7.622693452</v>
+      </c>
+      <c r="X25">
+        <v>9.1074125739999996</v>
+      </c>
+      <c r="Y25">
+        <v>7.7352628970000001</v>
+      </c>
+      <c r="Z25">
+        <v>11.040672170000001</v>
+      </c>
+      <c r="AA25">
+        <v>8.2159256480000007</v>
+      </c>
+      <c r="AB25">
+        <v>9.6830107020000007</v>
+      </c>
+      <c r="AC25">
+        <v>8.3773663789999997</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG25">
+        <v>3.86785188801823</v>
+      </c>
+      <c r="AH25">
+        <v>3.86785188801823</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20.12</v>
+      </c>
+      <c r="B26">
+        <v>0.35</v>
+      </c>
+      <c r="C26">
+        <v>0.17</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>0.96</v>
+      </c>
+      <c r="F26">
+        <v>15.35</v>
+      </c>
+      <c r="G26">
+        <v>2023</v>
+      </c>
+      <c r="H26">
+        <v>2024</v>
+      </c>
+      <c r="I26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26">
+        <v>3.4011973816621599</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>2.6502133512660926</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>15.354884153683072</v>
+      </c>
+      <c r="M26">
+        <v>8.923</v>
+      </c>
+      <c r="N26">
+        <v>9.7985410010000003</v>
+      </c>
+      <c r="O26">
+        <v>7.5280830669999999</v>
+      </c>
+      <c r="P26">
+        <v>8.6063258789999999</v>
+      </c>
+      <c r="Q26">
+        <v>7.4034611290000001</v>
+      </c>
+      <c r="R26">
+        <v>9.7153333330000002</v>
+      </c>
+      <c r="S26">
+        <v>7.1267142860000003</v>
+      </c>
+      <c r="T26">
+        <v>8.4311785710000002</v>
+      </c>
+      <c r="U26">
+        <v>7.095904762</v>
+      </c>
+      <c r="V26">
+        <v>9.9768849209999999</v>
+      </c>
+      <c r="W26">
+        <v>7.5311458330000001</v>
+      </c>
+      <c r="X26">
+        <v>8.6912946430000009</v>
+      </c>
+      <c r="Y26">
+        <v>7.4057738100000003</v>
+      </c>
+      <c r="Z26">
+        <v>10.68258606</v>
+      </c>
+      <c r="AA26">
+        <v>8.2124821630000007</v>
+      </c>
+      <c r="AB26">
+        <v>9.3492386409999995</v>
+      </c>
+      <c r="AC26">
+        <v>8.0367342599999994</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG26">
+        <v>3.0015904309938501</v>
+      </c>
+      <c r="AH26">
+        <v>2.9891843828310298</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53">
+        <v>4.2127499999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54">
+        <v>0.61040000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>0.25538</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>0.24413000000000001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.19869000000000001</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58">
+        <v>-0.31773000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.40303909999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF46E281-0CEF-4EC4-AD3B-17925BCA4308}">
   <dimension ref="A1:A73"/>
   <sheetViews>
@@ -1416,11 +4453,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B53DC4E-1590-4A10-BE78-06F2F23B2E7C}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1646,7 +4683,7 @@
         <v>1E-3</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X15" si="0">$B$21+$B$22*E3+$B$23*S3</f>
+        <f t="shared" ref="X3:X14" si="0">$B$21+$B$22*E3+$B$23*S3</f>
         <v>4.1044298183070804</v>
       </c>
     </row>
@@ -2591,10 +5628,10 @@
         <v>95</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="T21" s="11"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2605,10 +5642,10 @@
       </c>
       <c r="G22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="S22" s="8" t="s">
+      <c r="S22" t="s">
         <v>108</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22">
         <v>0.77866606998200782</v>
       </c>
     </row>
@@ -2623,10 +5660,10 @@
         <v>4</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="S23" s="8" t="s">
+      <c r="S23" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23">
         <v>0.60632084854122514</v>
       </c>
     </row>
@@ -2636,10 +5673,10 @@
         <v>5</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="S24" s="8" t="s">
+      <c r="S24" t="s">
         <v>110</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24">
         <v>0.57053183477224567</v>
       </c>
     </row>
@@ -2648,20 +5685,20 @@
         <v>96</v>
       </c>
       <c r="L25" s="3"/>
-      <c r="S25" s="8" t="s">
+      <c r="S25" t="s">
         <v>111</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25">
         <v>0.17890837264926129</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
       <c r="L26" s="3"/>
-      <c r="S26" s="9" t="s">
+      <c r="S26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <v>13</v>
       </c>
     </row>
@@ -2685,20 +5722,20 @@
         <v>98</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10" t="s">
+      <c r="S29" s="9"/>
+      <c r="T29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U29" s="10" t="s">
+      <c r="U29" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="V29" s="10" t="s">
+      <c r="V29" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="W29" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="X29" s="10" t="s">
+      <c r="X29" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2707,22 +5744,22 @@
         <v>99</v>
       </c>
       <c r="L30" s="3"/>
-      <c r="S30" s="8" t="s">
+      <c r="S30" t="s">
         <v>114</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30">
         <v>1</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30">
         <v>0.54226815605042089</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30">
         <v>0.54226815605042089</v>
       </c>
-      <c r="W30" s="8">
+      <c r="W30">
         <v>16.941535535320043</v>
       </c>
-      <c r="X30" s="8">
+      <c r="X30">
         <v>1.7122429895179605E-3</v>
       </c>
     </row>
@@ -2731,38 +5768,36 @@
         <v>100</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="S31" s="8" t="s">
+      <c r="S31" t="s">
         <v>115</v>
       </c>
-      <c r="T31" s="8">
+      <c r="T31">
         <v>11</v>
       </c>
-      <c r="U31" s="8">
+      <c r="U31">
         <v>0.35209026384407638</v>
       </c>
-      <c r="V31" s="8">
+      <c r="V31">
         <v>3.2008205804006942E-2</v>
       </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="S32" s="9" t="s">
+      <c r="S32" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="8">
         <v>12</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U32" s="8">
         <v>0.89435841989449727</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
     </row>
     <row r="33" spans="7:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="3" t="s">
@@ -2773,29 +5808,29 @@
     <row r="34" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
       <c r="L34" s="3"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10" t="s">
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="U34" s="10" t="s">
+      <c r="U34" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="V34" s="10" t="s">
+      <c r="V34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="W34" s="10" t="s">
+      <c r="W34" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="Y34" s="10" t="s">
+      <c r="Y34" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="Z34" s="10" t="s">
+      <c r="Z34" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AA34" s="10" t="s">
+      <c r="AA34" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2804,31 +5839,31 @@
         <v>101</v>
       </c>
       <c r="L35" s="3"/>
-      <c r="S35" s="8" t="s">
+      <c r="S35" t="s">
         <v>117</v>
       </c>
-      <c r="T35" s="8">
+      <c r="T35">
         <v>3.3495614377766403</v>
       </c>
-      <c r="U35" s="8">
+      <c r="U35">
         <v>0.14040937240208143</v>
       </c>
-      <c r="V35" s="8">
+      <c r="V35">
         <v>23.855682711726061</v>
       </c>
-      <c r="W35" s="8">
+      <c r="W35">
         <v>8.0042507903622036E-11</v>
       </c>
-      <c r="X35" s="8">
+      <c r="X35">
         <v>3.0405224927818786</v>
       </c>
-      <c r="Y35" s="8">
+      <c r="Y35">
         <v>3.658600382771402</v>
       </c>
-      <c r="Z35" s="8">
+      <c r="Z35">
         <v>3.0405224927818786</v>
       </c>
-      <c r="AA35" s="8">
+      <c r="AA35">
         <v>3.658600382771402</v>
       </c>
     </row>
@@ -2836,31 +5871,31 @@
       <c r="G36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S36" s="9" t="s">
+      <c r="S36" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="8">
         <v>0.16937006790475831</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="8">
         <v>4.1149093861515246E-2</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="8">
         <v>4.116009661713643</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="8">
         <v>1.712242989517956E-3</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="8">
         <v>7.8801522964345325E-2</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="8">
         <v>0.25993861284517128</v>
       </c>
-      <c r="Z36" s="9">
+      <c r="Z36" s="8">
         <v>7.8801522964345325E-2</v>
       </c>
-      <c r="AA36" s="9">
+      <c r="AA36" s="8">
         <v>0.25993861284517128</v>
       </c>
     </row>
@@ -2874,7 +5909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7556A5-8EFD-4863-9DA9-2AF830FA9511}">
   <dimension ref="A1:AF49"/>
   <sheetViews>
@@ -5547,12 +8582,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BD1B05-4C93-405D-A6E8-896B47CF4228}">
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,7 +11321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2C3835-C4CE-4BAB-9012-7C33A2C1C35E}">
   <dimension ref="A1:AF58"/>
   <sheetViews>
@@ -11057,11 +14092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC3B6B7-6290-4337-BC9E-0C79E89D01EF}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
